--- a/Excel/PM_Carbon_Database_23-03-01.xlsx
+++ b/Excel/PM_Carbon_Database_23-03-01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mccarthyg\PycharmProjects\Streamlit-Portfolio_230202\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mccarthyg\PycharmProjects\MultiversePortfolio\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360807BC-653B-4EAB-9771-75CFC094016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09520AE9-30FE-48AF-A75E-0F1ADED0A7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="900" windowWidth="27330" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pryce &amp; Myers Carbon Data" sheetId="1" r:id="rId1"/>
@@ -9727,7 +9727,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PM_Carbon_Database_11-02-2022.xlsx]Basements!PivotTable16</c:name>
+    <c:name>[PM_Carbon_Database_23-03-01.xlsx]Basements!PivotTable16</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -10124,7 +10124,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[PM_Carbon_Database_11-02-2022.xlsx]Sheet14!PivotTable64</c:name>
+    <c:name>[PM_Carbon_Database_23-03-01.xlsx]Sheet14!PivotTable64</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>

--- a/Excel/PM_Carbon_Database_23-03-01.xlsx
+++ b/Excel/PM_Carbon_Database_23-03-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mccarthyg\PycharmProjects\MultiversePortfolio\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09520AE9-30FE-48AF-A75E-0F1ADED0A7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E271BF-468A-4772-99FF-2CFB0580550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="900" windowWidth="27330" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="900" windowWidth="27330" windowHeight="13350" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pryce &amp; Myers Carbon Data" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="3104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="3105">
   <si>
     <t>Stage 4</t>
   </si>
@@ -9424,6 +9424,9 @@
   </si>
   <si>
     <t>office</t>
+  </si>
+  <si>
+    <t>Testting</t>
   </si>
 </sst>
 </file>
@@ -14351,7 +14354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT276"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -53053,10 +53056,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36890E-89B0-49EE-8479-2622B1FAB5C5}">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A3:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -53114,6 +53117,11 @@
       </c>
       <c r="B7" s="7">
         <v>386.31538461538452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>3104</v>
       </c>
     </row>
   </sheetData>
